--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,129 +46,117 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>water</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>small</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>di</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>paint</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>less</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>though</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
@@ -184,9 +172,6 @@
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -211,22 +196,25 @@
     <t>loved</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>enjoyed</t>
   </si>
   <si>
     <t>christmas</t>
@@ -235,13 +223,10 @@
     <t>fun</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>play</t>
@@ -605,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,10 +598,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -695,7 +680,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -724,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -742,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K4">
         <v>0.8923076923076924</v>
@@ -774,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7631578947368421</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -792,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -816,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -824,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7464788732394366</v>
+        <v>0.71875</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,16 +830,16 @@
         <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K6">
-        <v>0.8279569892473119</v>
+        <v>0.796875</v>
       </c>
       <c r="L6">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="M6">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -866,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -874,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.71875</v>
+        <v>0.6720430107526881</v>
       </c>
       <c r="C7">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -892,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K7">
-        <v>0.75</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L7">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -916,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -924,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6612903225806451</v>
+        <v>0.6359223300970874</v>
       </c>
       <c r="C8">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D8">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -942,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K8">
-        <v>0.6981132075471698</v>
+        <v>0.5538020086083214</v>
       </c>
       <c r="L8">
-        <v>37</v>
+        <v>386</v>
       </c>
       <c r="M8">
-        <v>37</v>
+        <v>386</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -966,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -974,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6571428571428571</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -992,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K9">
-        <v>0.5767575322812052</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L9">
-        <v>402</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>402</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1016,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>295</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1024,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6456310679611651</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C10">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="D10">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1042,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>0.4927536231884058</v>
+        <v>0.495850622406639</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>35</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1074,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6351351351351351</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C11">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1092,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K11">
-        <v>0.4854771784232365</v>
+        <v>0.4778688524590164</v>
       </c>
       <c r="L11">
-        <v>234</v>
+        <v>583</v>
       </c>
       <c r="M11">
-        <v>234</v>
+        <v>583</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1116,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>248</v>
+        <v>637</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1124,37 +1109,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5952380952380952</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>25</v>
       </c>
-      <c r="D12">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>17</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K12">
-        <v>0.4581967213114754</v>
+        <v>0.345565749235474</v>
       </c>
       <c r="L12">
-        <v>559</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>559</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1166,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>661</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1174,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5833333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1192,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K13">
-        <v>0.3608562691131498</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="L13">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="M13">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1216,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>209</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1224,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5798319327731093</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C14">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="D14">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1242,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K14">
-        <v>0.3433734939759036</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L14">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M14">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1266,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1274,13 +1259,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5636363636363636</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1292,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K15">
-        <v>0.3174603174603174</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L15">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="M15">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1316,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>129</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1324,13 +1309,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5370370370370371</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1342,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K16">
-        <v>0.3083333333333333</v>
+        <v>0.2109375</v>
       </c>
       <c r="L16">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1366,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1374,13 +1359,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4985507246376812</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C17">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1392,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K17">
-        <v>0.2109375</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1416,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1424,13 +1409,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4888888888888889</v>
+        <v>0.3937007874015748</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1442,19 +1427,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K18">
-        <v>0.1827956989247312</v>
+        <v>0.1989247311827957</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1466,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1474,13 +1459,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4457831325301205</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1492,19 +1477,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K19">
-        <v>0.1818181818181818</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1516,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1524,13 +1509,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.421875</v>
+        <v>0.3649289099526066</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1542,19 +1527,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K20">
-        <v>0.1606425702811245</v>
+        <v>0.1566265060240964</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1566,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1574,13 +1559,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3981042654028436</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C21">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1592,19 +1577,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K21">
-        <v>0.1498685363716039</v>
+        <v>0.1489921121822962</v>
       </c>
       <c r="L21">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M21">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1616,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1624,13 +1609,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3968253968253968</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1642,31 +1627,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K22">
-        <v>0.07792207792207792</v>
+        <v>0.08913649025069638</v>
       </c>
       <c r="L22">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1420</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1674,13 +1659,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3937007874015748</v>
+        <v>0.3203125</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1692,31 +1677,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K23">
-        <v>0.06702412868632708</v>
+        <v>0.07268007787151201</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="N23">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>348</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1724,13 +1709,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3894736842105263</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="C24">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1742,31 +1727,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K24">
-        <v>0.06406685236768803</v>
+        <v>0.03466666666666667</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>336</v>
+        <v>724</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1774,13 +1759,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3833333333333334</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1792,31 +1777,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>37</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25">
-        <v>0.03595206391478029</v>
-      </c>
-      <c r="L25">
-        <v>27</v>
-      </c>
-      <c r="M25">
-        <v>28</v>
-      </c>
-      <c r="N25">
-        <v>0.96</v>
-      </c>
-      <c r="O25">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>724</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1824,13 +1785,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3359375</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="C26">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1842,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1850,13 +1811,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.247191011235955</v>
+        <v>0.1884057971014493</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1868,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>67</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1876,13 +1837,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2346938775510204</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D28">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1894,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>75</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1902,13 +1863,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2326732673267327</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="C29">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D29">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1920,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1928,13 +1889,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2319587628865979</v>
+        <v>0.17</v>
       </c>
       <c r="C30">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1946,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1954,13 +1915,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1956521739130435</v>
+        <v>0.1691394658753709</v>
       </c>
       <c r="C31">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="D31">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1972,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>222</v>
+        <v>560</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1980,13 +1941,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.188034188034188</v>
+        <v>0.1609195402298851</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1998,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>95</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2006,13 +1967,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1580459770114943</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D33">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2024,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>293</v>
+        <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2032,13 +1993,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1572700296735905</v>
+        <v>0.1371428571428571</v>
       </c>
       <c r="C34">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2050,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>568</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2058,13 +2019,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1550632911392405</v>
+        <v>0.1167400881057269</v>
       </c>
       <c r="C35">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D35">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2076,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>267</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2084,13 +2045,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1455696202531646</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C36">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2102,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>270</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2110,25 +2071,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.145</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C37">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>171</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2136,13 +2097,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1235955056179775</v>
+        <v>0.07397260273972603</v>
       </c>
       <c r="C38">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D38">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2154,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>234</v>
+        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2162,25 +2123,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1123348017621145</v>
+        <v>0.07062146892655367</v>
       </c>
       <c r="C39">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D39">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>403</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2188,13 +2149,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1121495327102804</v>
+        <v>0.06904231625835189</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2206,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>190</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2214,25 +2175,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1052631578947368</v>
+        <v>0.05107084019769358</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E41">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F41">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>221</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2240,25 +2201,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.07627118644067797</v>
+        <v>0.04562737642585551</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D42">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E42">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="F42">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>327</v>
+        <v>753</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2266,13 +2227,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.07590759075907591</v>
+        <v>0.03516819571865443</v>
       </c>
       <c r="C43">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E43">
         <v>0.04</v>
@@ -2284,111 +2245,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44">
-        <v>0.07572383073496659</v>
-      </c>
-      <c r="C44">
-        <v>34</v>
-      </c>
-      <c r="D44">
-        <v>34</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>0.07123287671232877</v>
-      </c>
-      <c r="C45">
-        <v>26</v>
-      </c>
-      <c r="D45">
-        <v>26</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46">
-        <v>0.03934010152284264</v>
-      </c>
-      <c r="C46">
-        <v>31</v>
-      </c>
-      <c r="D46">
-        <v>37</v>
-      </c>
-      <c r="E46">
-        <v>0.16</v>
-      </c>
-      <c r="F46">
-        <v>0.84</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.03533026113671275</v>
-      </c>
-      <c r="C47">
-        <v>23</v>
-      </c>
-      <c r="D47">
-        <v>27</v>
-      </c>
-      <c r="E47">
-        <v>0.15</v>
-      </c>
-      <c r="F47">
-        <v>0.85</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
